--- a/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-7,43</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-8,18</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-2,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-4,11</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,94</t>
+          <t>-4,14; 6,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,51</t>
+          <t>-3,55; 7,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 17,79</t>
+          <t>-9,05; 12,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,13</t>
+          <t>-8,73; 4,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,69</t>
+          <t>-14,25; -1,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 16,36</t>
+          <t>-17,25; 8,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,57</t>
+          <t>-4,82; 4,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,31</t>
+          <t>-7,23; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 13,46</t>
+          <t>-11,23; 4,2</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>-2,74%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-23,22%</t>
+          <t>-9,25%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-33,07%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>-36,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>-1,62%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>-23,12%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 83,0</t>
+          <t>-25,33; 62,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 62,71</t>
+          <t>-23,38; 72,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 242,55</t>
+          <t>-62,78; 111,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 22,24</t>
+          <t>-34,1; 23,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 7,84</t>
+          <t>-53,21; -4,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 150,15</t>
+          <t>-71,53; 39,44</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 27,46</t>
+          <t>-23,49; 27,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 15,05</t>
+          <t>-35,75; 9,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 138,11</t>
+          <t>-58,92; 27,08</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-3,74</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>5,77</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,52</t>
+          <t>-2,59; 5,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,55</t>
+          <t>-4,13; 4,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,96</t>
+          <t>-0,82; 17,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,53</t>
+          <t>-8,0; 2,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -1,02</t>
+          <t>-8,66; 0,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 8,14</t>
+          <t>-6,32; 16,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,04</t>
+          <t>-4,23; 2,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,57</t>
+          <t>-5,02; 1,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 4,2</t>
+          <t>-0,55; 13,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>88,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>-23,22%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,07%</t>
+          <t>-29,92%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-36,42%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>-7,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-16,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>53,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 62,56</t>
+          <t>-24,88; 83,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 72,8</t>
+          <t>-37,81; 62,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 111,55</t>
+          <t>-6,91; 242,55</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 23,53</t>
+          <t>-51,81; 22,24</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,21; -4,24</t>
+          <t>-56,22; 7,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,53; 39,44</t>
+          <t>-47,08; 150,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 27,45</t>
+          <t>-33,97; 27,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 9,93</t>
+          <t>-39,61; 15,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 27,08</t>
+          <t>-3,65; 138,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>-9,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,59</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>3,12</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-4,67</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,36</t>
+          <t>0,23</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 0,4</t>
+          <t>-20,45; 0,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 4,71</t>
+          <t>-15,76; 6,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,79; 10,35</t>
+          <t>-22,06; 15,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 5,93</t>
+          <t>-12,09; 9,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 7,21</t>
+          <t>-6,86; 13,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 15,72</t>
+          <t>-13,95; 23,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 0,15</t>
+          <t>-12,99; 1,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 4,33</t>
+          <t>-8,21; 7,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-12,37; 9,06</t>
+          <t>-13,56; 13,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-18,45%</t>
+          <t>-20,23%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-6,89%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>-8,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,37%</t>
+          <t>-2,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,33%</t>
+          <t>-11,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>-0,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-6,23%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 0,95</t>
+          <t>-37,95; 2,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 12,95</t>
+          <t>-29,14; 15,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 28,57</t>
+          <t>-44,04; 35,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,97; 18,75</t>
+          <t>-25,17; 27,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,46; 21,6</t>
+          <t>-14,43; 37,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,61; 49,97</t>
+          <t>-31,8; 64,27</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-25,67; 0,29</t>
+          <t>-26,6; 4,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 12,38</t>
+          <t>-16,47; 18,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,05; 25,45</t>
+          <t>-29,51; 32,67</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-2,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>-5,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-5,59</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-7,43</t>
+          <t>-9,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-8,18</t>
+          <t>-13,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-2,68</t>
+          <t>-4,7</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,11</t>
+          <t>-9,4</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 6,52</t>
+          <t>-8,47; 3,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 7,55</t>
+          <t>-6,21; 5,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 12,96</t>
+          <t>-15,34; 7,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 4,53</t>
+          <t>-11,61; 0,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,25; -1,02</t>
+          <t>-15,75; -3,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 8,14</t>
+          <t>-22,97; 0,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,04</t>
+          <t>-8,68; 0,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,23; 1,57</t>
+          <t>-9,13; -0,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,23; 4,2</t>
+          <t>-16,26; 0,27</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>-12,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,52%</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,74%</t>
+          <t>-25,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,25%</t>
+          <t>-21,02%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-33,07%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-36,42%</t>
+          <t>-52,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>-17,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>-19,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-23,12%</t>
+          <t>-39,86%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,33; 62,56</t>
+          <t>-35,58; 20,13</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 72,8</t>
+          <t>-26,52; 31,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-62,78; 111,55</t>
+          <t>-68,13; 37,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 23,53</t>
+          <t>-39,42; 4,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,21; -4,24</t>
+          <t>-53,28; -14,95</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-71,53; 39,44</t>
+          <t>-81,31; 2,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-23,49; 27,45</t>
+          <t>-33,68; 1,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 9,93</t>
+          <t>-34,51; 0,02</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-58,92; 27,08</t>
+          <t>-66,47; 1,09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-4,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,07</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-4,99</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-3,74</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-6,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,03</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,73</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,77</t>
+          <t>-3,24</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,94</t>
+          <t>-8,57; 5,37</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,51</t>
+          <t>-10,99; 1,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 17,79</t>
+          <t>-9,67; 13,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 2,13</t>
+          <t>-12,75; 1,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 0,69</t>
+          <t>-12,18; 3,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,32; 16,36</t>
+          <t>-16,2; 9,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,23; 2,57</t>
+          <t>-8,68; 2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,31</t>
+          <t>-9,18; 0,06</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 13,46</t>
+          <t>-9,7; 7,13</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>-9,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>-32,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>88,48%</t>
+          <t>-3,35%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,22%</t>
+          <t>-26,48%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>-27,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>-33,34%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-7,9%</t>
+          <t>-18,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-28,61%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>-19,97%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-24,88; 83,0</t>
+          <t>-48,19; 52,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,81; 62,71</t>
+          <t>-61,47; 21,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,91; 242,55</t>
+          <t>-67,5; 117,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-51,81; 22,24</t>
+          <t>-56,34; 13,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 7,84</t>
+          <t>-52,5; 27,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-47,08; 150,15</t>
+          <t>-78,25; 66,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 27,46</t>
+          <t>-44,22; 15,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 15,05</t>
+          <t>-48,36; 1,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 138,11</t>
+          <t>-56,89; 54,59</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,38</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,44</t>
+          <t>11,96</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,26</t>
+          <t>0,24</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-2,48</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>10,62</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,19</t>
+          <t>-2,52; 6,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 2,68</t>
+          <t>-1,51; 9,01</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 6,87</t>
+          <t>1,74; 24,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 1,51</t>
+          <t>-5,79; 5,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -0,95</t>
+          <t>-9,45; 0,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,18; 4,52</t>
+          <t>-3,69; 26,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 0,84</t>
+          <t>-2,0; 5,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 0,02</t>
+          <t>-3,73; 3,18</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 3,07</t>
+          <t>1,86; 21,95</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-6,78%</t>
+          <t>38,69%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-3,56%</t>
+          <t>54,57%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-2,15%</t>
+          <t>176,38%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,7%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-18,44%</t>
+          <t>-41,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-8,38%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-11,37%</t>
+          <t>-2,38%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>127,21%</t>
         </is>
       </c>
     </row>
@@ -1439,58 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 12,28</t>
+          <t>-30,87; 142,06</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 14,48</t>
+          <t>-19,82; 182,64</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 35,98</t>
+          <t>20,92; 476,32</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-24,46; 7,67</t>
+          <t>-45,72; 76,16</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-32,55; -4,29</t>
+          <t>-71,19; 12,7</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,8; 20,38</t>
+          <t>-34,47; 328,45</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,57; 3,98</t>
+          <t>-20,2; 76,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 0,11</t>
+          <t>-37,82; 47,72</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,35; 15,18</t>
+          <t>19,45; 307,79</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,44</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,48</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,97; 2,22</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,0; 2,42</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 6,34</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,8; 2,14</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; -0,38</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-9,78; 5,33</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,78; 0,53</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-5,2; 0,08</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 2,52</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-6,78%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,15%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-18,44%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-15,11%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-8,38%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-11,37%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-8,94%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-22,33; 11,9</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; 13,48</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,98; 33,57</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-22,81; 10,31</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-31,83; -1,64</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-40,19; 24,46</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; 2,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-22,39; 0,31</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-30,4; 12,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 0,48</t>
+          <t>-19,85; 0,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 6,33</t>
+          <t>-15,21; 6,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 15,38</t>
+          <t>-21,39; 14,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,09; 9,41</t>
+          <t>-10,19; 10,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,86; 13,55</t>
+          <t>-7,88; 14,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 23,76</t>
+          <t>-14,76; 23,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 1,68</t>
+          <t>-13,01; 1,98</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,21; 7,43</t>
+          <t>-6,89; 7,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,56; 13,42</t>
+          <t>-13,69; 11,92</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,95; 2,61</t>
+          <t>-37,25; 1,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-29,14; 15,3</t>
+          <t>-28,95; 15,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-44,04; 35,51</t>
+          <t>-41,74; 33,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 27,13</t>
+          <t>-21,79; 29,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 37,11</t>
+          <t>-16,58; 43,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 64,27</t>
+          <t>-33,64; 61,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,6; 4,22</t>
+          <t>-26,65; 5,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,47; 18,02</t>
+          <t>-14,21; 18,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 32,67</t>
+          <t>-28,94; 27,6</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 3,32</t>
+          <t>-8,23; 2,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 5,34</t>
+          <t>-6,68; 5,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; 7,1</t>
+          <t>-14,52; 7,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 0,91</t>
+          <t>-12,28; 1,19</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; -3,46</t>
+          <t>-15,73; -3,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 0,39</t>
+          <t>-23,72; -0,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 0,15</t>
+          <t>-8,54; 0,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; -0,04</t>
+          <t>-9,06; -0,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 0,27</t>
+          <t>-16,66; 0,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,58; 20,13</t>
+          <t>-35,65; 15,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 31,5</t>
+          <t>-27,75; 31,5</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,13; 37,79</t>
+          <t>-65,57; 47,06</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-39,42; 4,39</t>
+          <t>-41,16; 5,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-53,28; -14,95</t>
+          <t>-52,65; -12,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-81,31; 2,27</t>
+          <t>-83,84; -0,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 1,53</t>
+          <t>-33,12; 0,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 0,02</t>
+          <t>-35,22; -1,98</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-66,47; 1,09</t>
+          <t>-67,13; 2,79</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 5,37</t>
+          <t>-8,72; 4,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,99; 1,75</t>
+          <t>-11,51; 1,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 13,41</t>
+          <t>-10,12; 13,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 1,78</t>
+          <t>-12,74; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 3,22</t>
+          <t>-12,61; 2,32</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 9,41</t>
+          <t>-15,88; 9,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 2,11</t>
+          <t>-7,96; 2,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 0,06</t>
+          <t>-9,77; 0,45</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 7,13</t>
+          <t>-10,69; 6,28</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-48,19; 52,42</t>
+          <t>-49,07; 53,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-61,47; 21,39</t>
+          <t>-62,44; 24,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-67,5; 117,47</t>
+          <t>-63,07; 134,53</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-56,34; 13,19</t>
+          <t>-53,81; 24,01</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-52,5; 27,99</t>
+          <t>-53,29; 19,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,25; 66,54</t>
+          <t>-77,26; 64,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,22; 15,11</t>
+          <t>-40,88; 18,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 1,39</t>
+          <t>-50,54; 3,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-56,89; 54,59</t>
+          <t>-58,87; 44,83</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 6,98</t>
+          <t>-1,97; 7,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 9,01</t>
+          <t>-1,22; 8,86</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,74; 24,81</t>
+          <t>2,1; 27,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 5,52</t>
+          <t>-5,9; 5,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,45; 0,43</t>
+          <t>-9,44; 1,03</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 26,88</t>
+          <t>-3,17; 28,1</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 5,16</t>
+          <t>-2,29; 5,65</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 3,18</t>
+          <t>-3,99; 2,99</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,86; 21,95</t>
+          <t>2,58; 19,96</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-30,87; 142,06</t>
+          <t>-22,85; 162,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,82; 182,64</t>
+          <t>-18,41; 182,61</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,92; 476,32</t>
+          <t>23,57; 526,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,72; 76,16</t>
+          <t>-45,98; 73,44</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 12,7</t>
+          <t>-73,12; 15,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 328,45</t>
+          <t>-31,69; 361,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-20,2; 76,66</t>
+          <t>-23,05; 81,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-37,82; 47,72</t>
+          <t>-41,52; 45,66</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,45; 307,79</t>
+          <t>21,33; 278,24</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,97; 2,22</t>
+          <t>-5,01; 1,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,42</t>
+          <t>-4,2; 2,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 6,34</t>
+          <t>-6,46; 5,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 2,14</t>
+          <t>-5,89; 1,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,12; -0,38</t>
+          <t>-8,3; -0,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 5,33</t>
+          <t>-10,01; 4,9</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,53</t>
+          <t>-4,43; 0,63</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 0,08</t>
+          <t>-5,12; 0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 2,52</t>
+          <t>-6,89; 2,86</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 11,9</t>
+          <t>-22,95; 10,81</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,26; 13,48</t>
+          <t>-19,42; 13,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 33,57</t>
+          <t>-30,83; 31,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 10,31</t>
+          <t>-24,07; 8,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -1,64</t>
+          <t>-32,29; -3,53</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,19; 24,46</t>
+          <t>-41,29; 21,18</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 2,69</t>
+          <t>-19,2; 2,76</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 0,31</t>
+          <t>-22,17; 0,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 12,14</t>
+          <t>-30,7; 13,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/IP18A02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3,12</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,98</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-9,61</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-3,59</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-3,99</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,86</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,12</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>-0,56</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 0,86</t>
+          <t>-11,16; 10,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,21; 6,58</t>
+          <t>-7,28; 12,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,39; 14,21</t>
+          <t>-13,4; 23,23</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 10,31</t>
+          <t>-19,21; 0,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 14,94</t>
+          <t>-13,86; 8,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 23,74</t>
+          <t>-22,98; 11,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 1,98</t>
+          <t>-13,07; 1,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 7,23</t>
+          <t>-7,45; 7,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; 11,92</t>
+          <t>-12,31; 15,21</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-2,08%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,52%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-20,23%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-7,57%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,4%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,08%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>7,52%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>-1,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 1,29</t>
+          <t>-24,03; 29,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-28,95; 15,39</t>
+          <t>-15,31; 37,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-41,74; 33,62</t>
+          <t>-30,46; 65,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,79; 29,47</t>
+          <t>-37,08; 0,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 43,77</t>
+          <t>-26,31; 19,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,64; 61,5</t>
+          <t>-45,76; 27,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-26,65; 5,41</t>
+          <t>-27,11; 4,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,21; 18,71</t>
+          <t>-15,52; 20,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,94; 27,6</t>
+          <t>-26,42; 37,35</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-5,59</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-9,48</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-13,87</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-2,48</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>-0,27</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,18</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-5,59</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-9,48</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,86</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-9,65</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 2,92</t>
+          <t>-11,69; 1,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 5,71</t>
+          <t>-15,78; -3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 7,92</t>
+          <t>-22,86; 1,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,28; 1,19</t>
+          <t>-8,49; 2,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,73; -3,35</t>
+          <t>-6,41; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -0,52</t>
+          <t>-15,08; 6,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-8,54; 0,07</t>
+          <t>-8,29; 0,08</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,06; -0,38</t>
+          <t>-8,95; -0,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,66; 0,23</t>
+          <t>-16,64; -0,84</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-21,02%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-35,65%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>-52,18%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>-12,02%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>-1,3%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-25,13%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-21,02%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-35,65%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-52,12%</t>
+          <t>-27,41%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-39,86%</t>
+          <t>-40,9%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 15,9</t>
+          <t>-39,73; 8,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,75; 31,5</t>
+          <t>-53,69; -15,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 47,06</t>
+          <t>-80,0; 5,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-41,16; 5,29</t>
+          <t>-35,78; 16,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -12,88</t>
+          <t>-26,88; 32,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-83,84; -0,67</t>
+          <t>-66,91; 37,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 0,57</t>
+          <t>-32,8; 0,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-35,22; -1,98</t>
+          <t>-34,43; -0,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-67,13; 2,79</t>
+          <t>-66,02; -2,51</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-4,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-7,48</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,3</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-4,42</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-4,99</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-5,09</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,28</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-4,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 4,92</t>
+          <t>-12,03; 2,71</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 1,93</t>
+          <t>-12,78; 2,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 13,27</t>
+          <t>-17,76; 4,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 3,23</t>
+          <t>-7,86; 5,33</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 2,32</t>
+          <t>-10,61; 1,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 9,34</t>
+          <t>-10,72; 11,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 2,29</t>
+          <t>-8,55; 1,95</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 0,45</t>
+          <t>-9,95; -0,12</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 6,28</t>
+          <t>-11,61; 4,67</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-26,48%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-27,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-39,67%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-9,42%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-32,09%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,35%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-26,48%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-27,0%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-33,34%</t>
+          <t>-9,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-19,97%</t>
+          <t>-26,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-49,07; 53,2</t>
+          <t>-52,61; 23,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,44; 24,41</t>
+          <t>-55,04; 15,3</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-63,07; 134,53</t>
+          <t>-81,81; 34,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-53,81; 24,01</t>
+          <t>-46,49; 59,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 19,87</t>
+          <t>-62,16; 19,09</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-77,26; 64,29</t>
+          <t>-67,99; 105,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,88; 18,63</t>
+          <t>-44,46; 14,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-50,54; 3,71</t>
+          <t>-51,25; -0,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-58,87; 44,83</t>
+          <t>-65,01; 32,2</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-4,13</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8,39</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>2,62</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>3,7</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>11,96</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-4,13</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,34</t>
+          <t>11,31</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>9,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 7,66</t>
+          <t>-5,14; 5,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 8,86</t>
+          <t>-9,38; 0,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,1; 27,56</t>
+          <t>-3,6; 27,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 5,43</t>
+          <t>-2,22; 7,53</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 1,03</t>
+          <t>-1,16; 9,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 28,1</t>
+          <t>2,57; 25,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 5,65</t>
+          <t>-2,09; 4,95</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 2,99</t>
+          <t>-3,63; 3,92</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 19,96</t>
+          <t>2,25; 19,45</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-41,29%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>83,89%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>38,69%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>54,57%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>176,38%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>2,42%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-41,29%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>93,4%</t>
+          <t>166,84%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>127,21%</t>
+          <t>118,03%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,85; 162,73</t>
+          <t>-41,01; 82,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,41; 182,61</t>
+          <t>-70,34; 16,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,57; 526,78</t>
+          <t>-32,56; 360,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-45,98; 73,44</t>
+          <t>-25,97; 172,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-73,12; 15,86</t>
+          <t>-14,14; 209,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,69; 361,71</t>
+          <t>22,19; 488,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 81,45</t>
+          <t>-21,28; 76,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-41,52; 45,66</t>
+          <t>-35,75; 55,93</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>21,33; 278,24</t>
+          <t>19,71; 273,5</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-2,26</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-4,31</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-4,18</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>-1,38</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-0,72</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>-2,26</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-4,31</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-3,53</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-2,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 1,97</t>
+          <t>-6,21; 1,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 2,53</t>
+          <t>-8,2; -0,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 5,97</t>
+          <t>-10,89; 3,36</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 1,84</t>
+          <t>-4,79; 2,19</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -0,74</t>
+          <t>-4,79; 2,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,01; 4,9</t>
+          <t>-6,64; 5,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 0,63</t>
+          <t>-4,18; 0,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 0,02</t>
+          <t>-4,95; 0,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 2,86</t>
+          <t>-6,99; 2,2</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-18,44%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-17,91%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>-6,78%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-3,56%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,15%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>-9,7%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>-18,44%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-15,11%</t>
+          <t>-6,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-8,94%</t>
+          <t>-12,37%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,95; 10,81</t>
+          <t>-24,46; 7,67</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 13,76</t>
+          <t>-32,55; -4,29</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,83; 31,72</t>
+          <t>-45,47; 14,95</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-24,07; 8,58</t>
+          <t>-21,79; 12,28</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-32,29; -3,53</t>
+          <t>-21,19; 14,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-41,29; 21,18</t>
+          <t>-31,71; 30,88</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 2,76</t>
+          <t>-18,57; 3,98</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 0,06</t>
+          <t>-21,49; 0,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-30,7; 13,85</t>
+          <t>-31,14; 10,65</t>
         </is>
       </c>
     </row>
